--- a/program/1S3B/RawData/Npc_Data.xlsx
+++ b/program/1S3B/RawData/Npc_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i83lo\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A04886-FA1D-4DA2-A631-8D2F3FF92C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F2121-6C7E-4E29-A1DA-D61ED6DBC44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="1740" windowWidth="14520" windowHeight="11295" xr2:uid="{EFD18725-E33A-49FD-90B5-FE102D41AE25}"/>
+    <workbookView xWindow="11385" yWindow="3660" windowWidth="14520" windowHeight="11295" xr2:uid="{EFD18725-E33A-49FD-90B5-FE102D41AE25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>npcId</t>
   </si>
@@ -68,7 +68,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미지</t>
+    <t>Portraits/NPC_0</t>
+  </si>
+  <si>
+    <t>Portraits/NPC_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portraits/NPC_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +466,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -510,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
